--- a/biology/Zoologie/Helias/Helias.xlsx
+++ b/biology/Zoologie/Helias/Helias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Helias regroupe des papillons de la famille des Hesperiidae et de la sous-famille des Pyrginae présents en Amérique, au Mexique et en Amérique du Sud.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helias Fabricius en 1807.
-Synonymes : Achna Billberg, 1820; Diphoridas Godman et Salvin, [1896];
+Synonymes : Achna Billberg, 1820; Diphoridas Godman et Salvin, ;
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Helias cama (Evans, 1953) au Mexique.
 Helias godmani (Mabille &amp; Boullet, 1917) au Mexique et en Équateur.
 Helias phalaenoides (Fabricius, 1807) au Brésil, en Paraguay et à Trinidad.
 Helias phalaenoides  phalaenoides
-Helias phalaenoides palpalis (Latreille, [1824]) au Brésil et au Pérou.</t>
+Helias phalaenoides palpalis (Latreille, ) au Brésil et au Pérou.</t>
         </is>
       </c>
     </row>
